--- a/data.xlsx
+++ b/data.xlsx
@@ -525,7 +525,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>آردتبري</t>
+          <t>آردتبری</t>
         </is>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mahdi/Dropbox/d-BaseTicker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87BB80BD-A817-5342-8F60-A16F211649CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97969FD8-FB63-9D42-986F-1B0461C3E552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="1160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="1161">
   <si>
     <t>BaseTicker</t>
   </si>
@@ -3500,6 +3500,9 @@
   </si>
   <si>
     <t>حذف -آرين</t>
+  </si>
+  <si>
+    <t>عسناسنگ2</t>
   </si>
 </sst>
 </file>
@@ -3875,11 +3878,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A1160"/>
+  <dimension ref="A1:A1161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A1131" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1161" sqref="A1161"/>
+      <selection pane="bottomLeft" activeCell="A1162" sqref="A1162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9687,6 +9690,11 @@
         <v>1159</v>
       </c>
     </row>
+    <row r="1161" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1161" s="2" t="s">
+        <v>1160</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
